--- a/biology/Botanique/Menyanthaceae/Menyanthaceae.xlsx
+++ b/biology/Botanique/Menyanthaceae/Menyanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Menyanthaceae (Ményanthacées) regroupe des plantes dicotylédones ; elle comprend 40 espèces réparties en 5 genres.
 Ce sont des plantes herbacées, pérennes, aquatiques ou semi-aquatiques.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Menyanthes, issu de Minyanthes (Minyanthes triphyllon), probablement l'ancien nom grec de l'espèce Menyanthes trifoliata, dérivé du grec μινυθο / minytho, « diminuer ; amoindrir », et άνθος  / anthos, fleur, en référence à la floraison qui se déroule sur une courte période[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Menyanthes, issu de Minyanthes (Minyanthes triphyllon), probablement l'ancien nom grec de l'espèce Menyanthes trifoliata, dérivé du grec μινυθο / minytho, « diminuer ; amoindrir », et άνθος  / anthos, fleur, en référence à la floraison qui se déroule sur une courte période.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Asterales.
 </t>
@@ -575,15 +591,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[2], NCBI  (12 nov. 2015)[3] et DELTA Angio           (12 nov. 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), NCBI  (12 nov. 2015) et DELTA Angio           (12 nov. 2015) :
 Liparophyllum (en)
 Menyanthes
 Nephrophyllidium (en)
 Nymphoides
 Villarsia (en)
-Selon ITIS      (12 nov. 2015)[5] :
+Selon ITIS      (12 nov. 2015) :
 Menyanthes L.
 Nephrophyllidium Gilg
 Nymphoides Hill</t>
@@ -614,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Liparophyllum
 Liparophyllum gunnii
 genre Menyanthes
